--- a/stock_historical_data/60m/RHETAN.BO.xlsx
+++ b/stock_historical_data/60m/RHETAN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2963,9 +3112,12 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6460,12 +6819,15 @@
         <v>4</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
       </c>
       <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,723 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>23.22999954223633</v>
+      </c>
+      <c r="C128" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="D128" t="n">
+        <v>23.22999954223633</v>
+      </c>
+      <c r="E128" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="F128" t="n">
+        <v>129256</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>23</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B129" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="C129" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D129" t="n">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="E129" t="n">
+        <v>23.31999969482422</v>
+      </c>
+      <c r="F129" t="n">
+        <v>82998</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>23</v>
+      </c>
+      <c r="J129" t="n">
+        <v>10</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>4</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B130" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C130" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D130" t="n">
+        <v>23.28000068664551</v>
+      </c>
+      <c r="E130" t="n">
+        <v>23.28000068664551</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14646</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>23</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="C131" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="D131" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="E131" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="F131" t="n">
+        <v>32762</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>23</v>
+      </c>
+      <c r="J131" t="n">
+        <v>12</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>4</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="C132" t="n">
+        <v>23.30999946594238</v>
+      </c>
+      <c r="D132" t="n">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="E132" t="n">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="F132" t="n">
+        <v>159446</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>23</v>
+      </c>
+      <c r="J132" t="n">
+        <v>13</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>4</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="C133" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="D133" t="n">
+        <v>23.22999954223633</v>
+      </c>
+      <c r="E133" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="F133" t="n">
+        <v>216576</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>23</v>
+      </c>
+      <c r="J133" t="n">
+        <v>14</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>4</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="C134" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="D134" t="n">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="E134" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="F134" t="n">
+        <v>27304</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>23</v>
+      </c>
+      <c r="J134" t="n">
+        <v>15</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>4</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="C135" t="n">
+        <v>23.3799991607666</v>
+      </c>
+      <c r="D135" t="n">
+        <v>23.19000053405762</v>
+      </c>
+      <c r="E135" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>175434</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>24</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>4</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C136" t="n">
+        <v>23.3799991607666</v>
+      </c>
+      <c r="D136" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E136" t="n">
+        <v>23.35000038146973</v>
+      </c>
+      <c r="F136" t="n">
+        <v>46809</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>24</v>
+      </c>
+      <c r="J136" t="n">
+        <v>10</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B137" t="n">
+        <v>23.35000038146973</v>
+      </c>
+      <c r="C137" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D137" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="E137" t="n">
+        <v>23.35000038146973</v>
+      </c>
+      <c r="F137" t="n">
+        <v>145707</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>24</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>4</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>23.35000038146973</v>
+      </c>
+      <c r="C138" t="n">
+        <v>23.35000038146973</v>
+      </c>
+      <c r="D138" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E138" t="n">
+        <v>23.34000015258789</v>
+      </c>
+      <c r="F138" t="n">
+        <v>47137</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>24</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>4</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C139" t="n">
+        <v>23.34000015258789</v>
+      </c>
+      <c r="D139" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="E139" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="F139" t="n">
+        <v>97868</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>24</v>
+      </c>
+      <c r="J139" t="n">
+        <v>13</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C140" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D140" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="E140" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="F140" t="n">
+        <v>70286</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>24</v>
+      </c>
+      <c r="J140" t="n">
+        <v>14</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>4</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="C141" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="D141" t="n">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="E141" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="F141" t="n">
+        <v>44347</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>24</v>
+      </c>
+      <c r="J141" t="n">
+        <v>15</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/RHETAN.BO.xlsx
+++ b/stock_historical_data/60m/RHETAN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7251,7 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7302,7 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7353,7 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7404,7 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7455,7 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7506,7 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7557,7 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7600,7 +7614,7 @@
         <v>4</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
@@ -7608,7 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7651,7 +7667,7 @@
         <v>4</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -7659,7 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7710,7 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7761,7 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7812,7 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7863,7 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7914,7 +7940,723 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" t="inlineStr"/>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>23</v>
+      </c>
+      <c r="C142" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22.29000091552734</v>
+      </c>
+      <c r="E142" t="n">
+        <v>22.48999977111816</v>
+      </c>
+      <c r="F142" t="n">
+        <v>96156</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>27</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>22.48999977111816</v>
+      </c>
+      <c r="C143" t="n">
+        <v>22.48999977111816</v>
+      </c>
+      <c r="D143" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="E143" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>78827</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>27</v>
+      </c>
+      <c r="J143" t="n">
+        <v>10</v>
+      </c>
+      <c r="K143" t="n">
+        <v>15</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B144" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="C144" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="D144" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="E144" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20797</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>27</v>
+      </c>
+      <c r="J144" t="n">
+        <v>11</v>
+      </c>
+      <c r="K144" t="n">
+        <v>15</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>5</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="C145" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="D145" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="E145" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>230821</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>27</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>5</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="C146" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="D146" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="E146" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5380</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>27</v>
+      </c>
+      <c r="J146" t="n">
+        <v>13</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>5</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="C147" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="D147" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="E147" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5968</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>27</v>
+      </c>
+      <c r="J147" t="n">
+        <v>14</v>
+      </c>
+      <c r="K147" t="n">
+        <v>15</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>5</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2</v>
+      </c>
+      <c r="P147" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="C148" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="D148" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="E148" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5526</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>27</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15</v>
+      </c>
+      <c r="K148" t="n">
+        <v>15</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>5</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B149" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C149" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="E149" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="F149" t="n">
+        <v>296250</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>28</v>
+      </c>
+      <c r="J149" t="n">
+        <v>9</v>
+      </c>
+      <c r="K149" t="n">
+        <v>15</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>5</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C150" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="D150" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="E150" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11648</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>28</v>
+      </c>
+      <c r="J150" t="n">
+        <v>10</v>
+      </c>
+      <c r="K150" t="n">
+        <v>15</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>5</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B151" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C151" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="D151" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="E151" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6984</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>28</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11</v>
+      </c>
+      <c r="K151" t="n">
+        <v>15</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C152" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="E152" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10322</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>28</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12</v>
+      </c>
+      <c r="K152" t="n">
+        <v>15</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>5</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C153" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="D153" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="E153" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31523</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>28</v>
+      </c>
+      <c r="J153" t="n">
+        <v>13</v>
+      </c>
+      <c r="K153" t="n">
+        <v>15</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C154" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="D154" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="E154" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="F154" t="n">
+        <v>27088</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28</v>
+      </c>
+      <c r="J154" t="n">
+        <v>14</v>
+      </c>
+      <c r="K154" t="n">
+        <v>15</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>5</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C155" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="D155" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="E155" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="F155" t="n">
+        <v>969</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>28</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15</v>
+      </c>
+      <c r="K155" t="n">
+        <v>15</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>5</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/RHETAN.BO.xlsx
+++ b/stock_historical_data/60m/RHETAN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q155"/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7993,7 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8044,7 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8095,7 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8146,7 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8197,7 +8205,9 @@
       <c r="P146" t="n">
         <v>2</v>
       </c>
-      <c r="Q146" t="inlineStr"/>
+      <c r="Q146" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8248,7 +8258,9 @@
       <c r="P147" t="n">
         <v>2</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8299,7 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
-      <c r="Q148" t="inlineStr"/>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8350,7 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
-      <c r="Q149" t="inlineStr"/>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8401,7 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
-      <c r="Q150" t="inlineStr"/>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8452,7 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
-      <c r="Q151" t="inlineStr"/>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8503,7 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
-      <c r="Q152" t="inlineStr"/>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8554,7 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
-      <c r="Q153" t="inlineStr"/>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8605,7 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8656,7 +8682,723 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
-      <c r="Q155" t="inlineStr"/>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="D156" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="F156" t="n">
+        <v>137985</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>29</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>15</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="C157" t="n">
+        <v>21</v>
+      </c>
+      <c r="D157" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="E157" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="F157" t="n">
+        <v>212127</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>29</v>
+      </c>
+      <c r="J157" t="n">
+        <v>10</v>
+      </c>
+      <c r="K157" t="n">
+        <v>15</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>5</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="C158" t="n">
+        <v>21</v>
+      </c>
+      <c r="D158" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="F158" t="n">
+        <v>45996</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>29</v>
+      </c>
+      <c r="J158" t="n">
+        <v>11</v>
+      </c>
+      <c r="K158" t="n">
+        <v>15</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>5</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>20.79000091552734</v>
+      </c>
+      <c r="C159" t="n">
+        <v>21</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>21</v>
+      </c>
+      <c r="F159" t="n">
+        <v>31476</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>29</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12</v>
+      </c>
+      <c r="K159" t="n">
+        <v>15</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>5</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="C160" t="n">
+        <v>21</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="F160" t="n">
+        <v>37209</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>29</v>
+      </c>
+      <c r="J160" t="n">
+        <v>13</v>
+      </c>
+      <c r="K160" t="n">
+        <v>15</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>5</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B161" t="n">
+        <v>21</v>
+      </c>
+      <c r="C161" t="n">
+        <v>21</v>
+      </c>
+      <c r="D161" t="n">
+        <v>20.52000045776367</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="F161" t="n">
+        <v>28533</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>29</v>
+      </c>
+      <c r="J161" t="n">
+        <v>14</v>
+      </c>
+      <c r="K161" t="n">
+        <v>15</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>5</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="C162" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="D162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20.55999946594238</v>
+      </c>
+      <c r="F162" t="n">
+        <v>23860</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>29</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15</v>
+      </c>
+      <c r="K162" t="n">
+        <v>15</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>5</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>20.93000030517578</v>
+      </c>
+      <c r="C163" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="E163" t="n">
+        <v>20.8799991607666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>154891</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>30</v>
+      </c>
+      <c r="J163" t="n">
+        <v>9</v>
+      </c>
+      <c r="K163" t="n">
+        <v>15</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>5</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>20.97999954223633</v>
+      </c>
+      <c r="C164" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="D164" t="n">
+        <v>20.8799991607666</v>
+      </c>
+      <c r="E164" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="F164" t="n">
+        <v>28121</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>30</v>
+      </c>
+      <c r="J164" t="n">
+        <v>10</v>
+      </c>
+      <c r="K164" t="n">
+        <v>15</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>5</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B165" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="C165" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="D165" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="E165" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="F165" t="n">
+        <v>119201</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>30</v>
+      </c>
+      <c r="J165" t="n">
+        <v>11</v>
+      </c>
+      <c r="K165" t="n">
+        <v>15</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>5</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="C166" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="D166" t="n">
+        <v>20.69000053405762</v>
+      </c>
+      <c r="E166" t="n">
+        <v>20.96999931335449</v>
+      </c>
+      <c r="F166" t="n">
+        <v>91518</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>30</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12</v>
+      </c>
+      <c r="K166" t="n">
+        <v>15</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>5</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>20.97999954223633</v>
+      </c>
+      <c r="C167" t="n">
+        <v>20.97999954223633</v>
+      </c>
+      <c r="D167" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E167" t="n">
+        <v>20.82999992370605</v>
+      </c>
+      <c r="F167" t="n">
+        <v>49357</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>30</v>
+      </c>
+      <c r="J167" t="n">
+        <v>13</v>
+      </c>
+      <c r="K167" t="n">
+        <v>15</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>5</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B168" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C168" t="n">
+        <v>20.82999992370605</v>
+      </c>
+      <c r="D168" t="n">
+        <v>20.69000053405762</v>
+      </c>
+      <c r="E168" t="n">
+        <v>20.71999931335449</v>
+      </c>
+      <c r="F168" t="n">
+        <v>36267</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>30</v>
+      </c>
+      <c r="J168" t="n">
+        <v>14</v>
+      </c>
+      <c r="K168" t="n">
+        <v>15</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>5</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>20.71999931335449</v>
+      </c>
+      <c r="C169" t="n">
+        <v>20.72999954223633</v>
+      </c>
+      <c r="D169" t="n">
+        <v>20.69000053405762</v>
+      </c>
+      <c r="E169" t="n">
+        <v>20.70999908447266</v>
+      </c>
+      <c r="F169" t="n">
+        <v>27450</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>30</v>
+      </c>
+      <c r="J169" t="n">
+        <v>15</v>
+      </c>
+      <c r="K169" t="n">
+        <v>15</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>5</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/RHETAN.BO.xlsx
+++ b/stock_historical_data/60m/RHETAN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q169"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8735,7 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
-      <c r="Q156" t="inlineStr"/>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8786,7 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
-      <c r="Q157" t="inlineStr"/>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8837,7 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
-      <c r="Q158" t="inlineStr"/>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8888,7 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
-      <c r="Q159" t="inlineStr"/>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8939,7 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
-      <c r="Q160" t="inlineStr"/>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8990,7 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
-      <c r="Q161" t="inlineStr"/>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9041,7 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
-      <c r="Q162" t="inlineStr"/>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9084,7 +9098,7 @@
         <v>5</v>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" t="n">
         <v>0</v>
@@ -9092,7 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
-      <c r="Q163" t="inlineStr"/>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9143,7 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
-      <c r="Q164" t="inlineStr"/>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9194,7 +9212,9 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
-      <c r="Q165" t="inlineStr"/>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9245,7 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
-      <c r="Q166" t="inlineStr"/>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9296,7 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
-      <c r="Q167" t="inlineStr"/>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9347,7 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
-      <c r="Q168" t="inlineStr"/>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9398,7 +9424,366 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
-      <c r="Q169" t="inlineStr"/>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="C170" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="D170" t="n">
+        <v>20.72999954223633</v>
+      </c>
+      <c r="E170" t="n">
+        <v>21.1299991607666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>71130</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>31</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9</v>
+      </c>
+      <c r="K170" t="n">
+        <v>15</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>5</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B171" t="n">
+        <v>21</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="D171" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="E171" t="n">
+        <v>21.01000022888184</v>
+      </c>
+      <c r="F171" t="n">
+        <v>62003</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>31</v>
+      </c>
+      <c r="J171" t="n">
+        <v>10</v>
+      </c>
+      <c r="K171" t="n">
+        <v>15</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>5</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="C172" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="D172" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="E172" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>35433</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>31</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11</v>
+      </c>
+      <c r="K172" t="n">
+        <v>15</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>5</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="C173" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D173" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="E173" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="F173" t="n">
+        <v>19215</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>31</v>
+      </c>
+      <c r="J173" t="n">
+        <v>12</v>
+      </c>
+      <c r="K173" t="n">
+        <v>15</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>5</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21</v>
+      </c>
+      <c r="D174" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="E174" t="n">
+        <v>21</v>
+      </c>
+      <c r="F174" t="n">
+        <v>35737</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>31</v>
+      </c>
+      <c r="J174" t="n">
+        <v>13</v>
+      </c>
+      <c r="K174" t="n">
+        <v>15</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>5</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>2</v>
+      </c>
+      <c r="P174" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B175" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="C175" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="D175" t="n">
+        <v>20.8799991607666</v>
+      </c>
+      <c r="E175" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="F175" t="n">
+        <v>52395</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>31</v>
+      </c>
+      <c r="J175" t="n">
+        <v>14</v>
+      </c>
+      <c r="K175" t="n">
+        <v>15</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>5</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="C176" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="D176" t="n">
+        <v>20.8799991607666</v>
+      </c>
+      <c r="E176" t="n">
+        <v>20.88999938964844</v>
+      </c>
+      <c r="F176" t="n">
+        <v>27343</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>31</v>
+      </c>
+      <c r="J176" t="n">
+        <v>15</v>
+      </c>
+      <c r="K176" t="n">
+        <v>15</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>5</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/RHETAN.BO.xlsx
+++ b/stock_historical_data/60m/RHETAN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1648"/>
+  <dimension ref="A1:Q1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76025,6 +76025,951 @@
       <c r="P1648" t="inlineStr"/>
       <c r="Q1648" t="inlineStr"/>
     </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>44372</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1649" t="inlineStr"/>
+      <c r="O1649" t="inlineStr"/>
+      <c r="P1649" t="inlineStr"/>
+      <c r="Q1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>20340</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1650" t="inlineStr"/>
+      <c r="O1650" t="inlineStr"/>
+      <c r="P1650" t="inlineStr"/>
+      <c r="Q1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>21.07999992370605</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>13991</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1651" t="inlineStr"/>
+      <c r="O1651" t="inlineStr"/>
+      <c r="P1651" t="inlineStr"/>
+      <c r="Q1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>21.07999992370605</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>21.01000022888184</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>4761</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1652" t="inlineStr"/>
+      <c r="O1652" t="inlineStr"/>
+      <c r="P1652" t="inlineStr"/>
+      <c r="Q1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>10902</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1653" t="inlineStr"/>
+      <c r="O1653" t="inlineStr"/>
+      <c r="P1653" t="inlineStr"/>
+      <c r="Q1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>15298</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1654" t="inlineStr"/>
+      <c r="O1654" t="inlineStr"/>
+      <c r="P1654" t="inlineStr"/>
+      <c r="Q1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>21.04000091552734</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>6175</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1655" t="inlineStr"/>
+      <c r="O1655" t="inlineStr"/>
+      <c r="P1655" t="inlineStr"/>
+      <c r="Q1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>21.23999977111816</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>20.88999938964844</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>24758</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1656" t="inlineStr"/>
+      <c r="O1656" t="inlineStr"/>
+      <c r="P1656" t="inlineStr"/>
+      <c r="Q1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>25860</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1657" t="inlineStr"/>
+      <c r="O1657" t="inlineStr"/>
+      <c r="P1657" t="inlineStr"/>
+      <c r="Q1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>44340</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1658" t="inlineStr"/>
+      <c r="O1658" t="inlineStr"/>
+      <c r="P1658" t="inlineStr"/>
+      <c r="Q1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>21.11000061035156</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>18383</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1659" t="inlineStr"/>
+      <c r="O1659" t="inlineStr"/>
+      <c r="P1659" t="inlineStr"/>
+      <c r="Q1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>16644</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1660" t="inlineStr"/>
+      <c r="O1660" t="inlineStr"/>
+      <c r="P1660" t="inlineStr"/>
+      <c r="Q1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>20.94000053405762</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>112124</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1661" t="inlineStr"/>
+      <c r="O1661" t="inlineStr"/>
+      <c r="P1661" t="inlineStr"/>
+      <c r="Q1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>20.93000030517578</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>20.96999931335449</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>56476</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1662" t="inlineStr"/>
+      <c r="O1662" t="inlineStr"/>
+      <c r="P1662" t="inlineStr"/>
+      <c r="Q1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>21.35000038146973</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>48385</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1663" t="inlineStr"/>
+      <c r="O1663" t="inlineStr"/>
+      <c r="P1663" t="inlineStr"/>
+      <c r="Q1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>20.96999931335449</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>20.96999931335449</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>28973</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1664" t="inlineStr"/>
+      <c r="O1664" t="inlineStr"/>
+      <c r="P1664" t="inlineStr"/>
+      <c r="Q1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>20.96999931335449</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>30946</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1665" t="inlineStr"/>
+      <c r="O1665" t="inlineStr"/>
+      <c r="P1665" t="inlineStr"/>
+      <c r="Q1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>6595</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1666" t="inlineStr"/>
+      <c r="O1666" t="inlineStr"/>
+      <c r="P1666" t="inlineStr"/>
+      <c r="Q1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>20.81999969482422</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>20.84000015258789</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>122194</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1667" t="inlineStr"/>
+      <c r="O1667" t="inlineStr"/>
+      <c r="P1667" t="inlineStr"/>
+      <c r="Q1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>20.84000015258789</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>20.71999931335449</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>31292</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1668" t="inlineStr"/>
+      <c r="O1668" t="inlineStr"/>
+      <c r="P1668" t="inlineStr"/>
+      <c r="Q1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>20.71999931335449</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>20.76000022888184</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>4502</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1669" t="inlineStr"/>
+      <c r="O1669" t="inlineStr"/>
+      <c r="P1669" t="inlineStr"/>
+      <c r="Q1669" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/RHETAN.BO.xlsx
+++ b/stock_historical_data/60m/RHETAN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1669"/>
+  <dimension ref="A1:Q1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76970,6 +76970,636 @@
       <c r="P1669" t="inlineStr"/>
       <c r="Q1669" t="inlineStr"/>
     </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>59891</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1670" t="inlineStr"/>
+      <c r="O1670" t="inlineStr"/>
+      <c r="P1670" t="inlineStr"/>
+      <c r="Q1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>20.73999977111816</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>20.54000091552734</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>20.73999977111816</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>171500</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1671" t="inlineStr"/>
+      <c r="O1671" t="inlineStr"/>
+      <c r="P1671" t="inlineStr"/>
+      <c r="Q1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>20.54000091552734</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>20.73999977111816</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>20.52000045776367</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>11334</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1672" t="inlineStr"/>
+      <c r="O1672" t="inlineStr"/>
+      <c r="P1672" t="inlineStr"/>
+      <c r="Q1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>20.6200008392334</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>20.69000053405762</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>53327</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1673" t="inlineStr"/>
+      <c r="O1673" t="inlineStr"/>
+      <c r="P1673" t="inlineStr"/>
+      <c r="Q1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>20.54999923706055</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>26143</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1674" t="inlineStr"/>
+      <c r="O1674" t="inlineStr"/>
+      <c r="P1674" t="inlineStr"/>
+      <c r="Q1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>20.45000076293945</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>16041</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1675" t="inlineStr"/>
+      <c r="O1675" t="inlineStr"/>
+      <c r="P1675" t="inlineStr"/>
+      <c r="Q1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>20.45000076293945</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>20.45000076293945</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>20.34000015258789</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>4255</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1676" t="inlineStr"/>
+      <c r="O1676" t="inlineStr"/>
+      <c r="P1676" t="inlineStr"/>
+      <c r="Q1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>20.34000015258789</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>20.44000053405762</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>95528</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1677" t="inlineStr"/>
+      <c r="O1677" t="inlineStr"/>
+      <c r="P1677" t="inlineStr"/>
+      <c r="Q1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>19.35000038146973</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>45925</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1678" t="inlineStr"/>
+      <c r="O1678" t="inlineStr"/>
+      <c r="P1678" t="inlineStr"/>
+      <c r="Q1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>22511</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1679" t="inlineStr"/>
+      <c r="O1679" t="inlineStr"/>
+      <c r="P1679" t="inlineStr"/>
+      <c r="Q1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>9040</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1680" t="inlineStr"/>
+      <c r="O1680" t="inlineStr"/>
+      <c r="P1680" t="inlineStr"/>
+      <c r="Q1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>10154</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1681" t="inlineStr"/>
+      <c r="O1681" t="inlineStr"/>
+      <c r="P1681" t="inlineStr"/>
+      <c r="Q1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>9867</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1682" t="inlineStr"/>
+      <c r="O1682" t="inlineStr"/>
+      <c r="P1682" t="inlineStr"/>
+      <c r="Q1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>22813</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1683" t="inlineStr"/>
+      <c r="O1683" t="inlineStr"/>
+      <c r="P1683" t="inlineStr"/>
+      <c r="Q1683" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/RHETAN.BO.xlsx
+++ b/stock_historical_data/60m/RHETAN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1683"/>
+  <dimension ref="A1:Q1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77600,6 +77600,636 @@
       <c r="P1683" t="inlineStr"/>
       <c r="Q1683" t="inlineStr"/>
     </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>110705</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1684" t="inlineStr"/>
+      <c r="O1684" t="inlineStr"/>
+      <c r="P1684" t="inlineStr"/>
+      <c r="Q1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>19.01000022888184</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>18.80999946594238</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>80516</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1685" t="inlineStr"/>
+      <c r="O1685" t="inlineStr"/>
+      <c r="P1685" t="inlineStr"/>
+      <c r="Q1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>18.85000038146973</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>21942</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1686" t="inlineStr"/>
+      <c r="O1686" t="inlineStr"/>
+      <c r="P1686" t="inlineStr"/>
+      <c r="Q1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>18.85000038146973</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>19.06999969482422</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>9981</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1687" t="inlineStr"/>
+      <c r="O1687" t="inlineStr"/>
+      <c r="P1687" t="inlineStr"/>
+      <c r="Q1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>19.06999969482422</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>19.09000015258789</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>71817</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1688" t="inlineStr"/>
+      <c r="O1688" t="inlineStr"/>
+      <c r="P1688" t="inlineStr"/>
+      <c r="Q1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>22319</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1689" t="inlineStr"/>
+      <c r="O1689" t="inlineStr"/>
+      <c r="P1689" t="inlineStr"/>
+      <c r="Q1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>24775</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1690" t="inlineStr"/>
+      <c r="O1690" t="inlineStr"/>
+      <c r="P1690" t="inlineStr"/>
+      <c r="Q1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45702.38541666666</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>154408</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1691" t="inlineStr"/>
+      <c r="O1691" t="inlineStr"/>
+      <c r="P1691" t="inlineStr"/>
+      <c r="Q1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45702.42708333334</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>17375</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1692" t="inlineStr"/>
+      <c r="O1692" t="inlineStr"/>
+      <c r="P1692" t="inlineStr"/>
+      <c r="Q1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45702.46875</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>8017</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1693" t="inlineStr"/>
+      <c r="O1693" t="inlineStr"/>
+      <c r="P1693" t="inlineStr"/>
+      <c r="Q1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45702.51041666666</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>8303</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1694" t="inlineStr"/>
+      <c r="O1694" t="inlineStr"/>
+      <c r="P1694" t="inlineStr"/>
+      <c r="Q1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>9296</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1695" t="inlineStr"/>
+      <c r="O1695" t="inlineStr"/>
+      <c r="P1695" t="inlineStr"/>
+      <c r="Q1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>8743</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1696" t="inlineStr"/>
+      <c r="O1696" t="inlineStr"/>
+      <c r="P1696" t="inlineStr"/>
+      <c r="Q1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45702.63541666666</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>3551</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1697" t="inlineStr"/>
+      <c r="O1697" t="inlineStr"/>
+      <c r="P1697" t="inlineStr"/>
+      <c r="Q1697" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
